--- a/tests.xlsx
+++ b/tests.xlsx
@@ -16,6 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="data" localSheetId="0">Sheet1!$A$1:$G$11</definedName>
+    <definedName name="data___Copy" localSheetId="0">Sheet1!$A$56:$G$156</definedName>
     <definedName name="data_1" localSheetId="0">Sheet1!$A$39:$G$48</definedName>
     <definedName name="data_2" localSheetId="0">Sheet1!#REF!</definedName>
     <definedName name="data_3" localSheetId="0">Sheet1!#REF!</definedName>
@@ -45,7 +46,20 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="data1" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" name="data - Copy" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="\\Client\C$\Users\Ben\Desktop\AI\autoTaxi\autoTaxi\autoTaxi\bin\Debug\data - Copy.csv" comma="1">
+      <textFields count="7">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="data1" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="\\Client\C$\Users\Ben\Desktop\AI\autoTaxi\autoTaxi\autoTaxi\bin\Debug\data.csv" comma="1">
       <textFields count="7">
         <textField/>
@@ -175,7 +189,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -188,20 +202,20 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>Greedy Algorithm</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
               <a:t> Vs. Short Line Distance Algorithm</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr b="1"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
               <a:t>Total Miles Driven</a:t>
             </a:r>
           </a:p>
@@ -221,7 +235,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -247,15 +261,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Greedy M</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>data</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -281,78 +287,618 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:f>Sheet1!$C$57:$C$156</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>6815.74</c:v>
+                  <c:v>6237.44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6598.93</c:v>
+                  <c:v>6337.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7021.48</c:v>
+                  <c:v>6024.23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7316.45</c:v>
+                  <c:v>6122.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6860.19</c:v>
+                  <c:v>6808.13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6739.62</c:v>
+                  <c:v>6110.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7161.99</c:v>
+                  <c:v>6008.85</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7284.77</c:v>
+                  <c:v>6338.03</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7093.28</c:v>
+                  <c:v>6317.73</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7123.07</c:v>
+                  <c:v>5424.99</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6026.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5907</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5741.49</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6377.09</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6369.62</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5936.71</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6722.97</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6491.93</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6001.82</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6122.66</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5857.49</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6717.15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5932.67</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5880.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5658.17</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6355.98</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6358.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5467.26</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5677.33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6038.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6254.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6174.43</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5893.56</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6392.94</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6287.81</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6211.14</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6255.08</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6555.1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5970.91</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5809.08</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5823.62</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6185.22</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6398.58</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6111.85</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6665.24</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6340.68</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6080.22</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6620.27</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5566.66</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6154.29</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6262.95</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6172.98</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6238.14</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6545.09</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6388.25</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6405.1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6291.95</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5951.94</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6110.31</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6062.96</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6509.27</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6038.47</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6134.27</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6166.52</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6465.14</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6272.41</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6004.38</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6181.66</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6150.16</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6107.65</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6117.48</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6762.83</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6244.14</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5688.76</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6134.09</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6005.05</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6422.23</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6208.02</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6053.21</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5619.48</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5957.26</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6671.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5877.34</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6568.19</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5241.5600000000004</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6020.02</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5984.97</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6090.34</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6311.7</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6158.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5921.03</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6095.41</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6767.02</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5959.14</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6236.65</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5803.33</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5593.54</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6565.7</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6773.32</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6279.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>Sheet1!$A$57:$A$156</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>7584.43</c:v>
+                  <c:v>6806.18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7298.34</c:v>
+                  <c:v>7394.59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7452.86</c:v>
+                  <c:v>7001.09</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7451.44</c:v>
+                  <c:v>7163.24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7439.32</c:v>
+                  <c:v>7450.35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7387.73</c:v>
+                  <c:v>7159.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7632.56</c:v>
+                  <c:v>6901.78</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7748.07</c:v>
+                  <c:v>7041.38</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7734.25</c:v>
+                  <c:v>7263.14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7711.72</c:v>
+                  <c:v>6865.61</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6955.32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6895.63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6949.76</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7125.83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7284.57</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6948.93</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7534.72</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7244.86</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6954.15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6927.46</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6800.79</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7364.86</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6897.98</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6654.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6912.49</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7013.31</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7028.79</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6675.08</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6609.48</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7029.66</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7041.86</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6980.29</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7111.97</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7007.48</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7071.97</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7132.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7122.43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7005.08</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7027.65</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7032.38</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7138.78</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7117.62</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7023.25</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7441.19</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7285.41</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7248.17</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6984.47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7120.66</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6725.46</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7167.08</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7005.11</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6985.87</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7195.84</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7147.9</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7033.74</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7369.04</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7293.35</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7156.44</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6893.22</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7182.33</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7272.52</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6999.84</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7030.47</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7167.43</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7164.51</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6927.23</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6871.39</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7126.99</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7213.04</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7075.02</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6807.98</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7469.99</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7238.05</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6918.18</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6970.38</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7159.06</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7274.88</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7316.6</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7274.85</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6865.26</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7115.13</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7413.63</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7114.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7308.75</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6624.59</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7159.8</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6987.66</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7222.41</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7002.33</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7147.94</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6936.05</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7127.18</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7198.43</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7075.33</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7032.82</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6791.36</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6827.29</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7322.03</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7339.54</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6991.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -426,7 +972,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8001</c:v>
@@ -441,7 +987,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8001</c:v>
@@ -471,8 +1017,8 @@
         <c:axId val="183404776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="8000"/>
-          <c:min val="6000"/>
+          <c:max val="7800"/>
+          <c:min val="5000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -497,7 +1043,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -510,7 +1056,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Short Line Distance Miles Driven</a:t>
                 </a:r>
               </a:p>
@@ -530,7 +1076,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -568,7 +1114,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -591,8 +1137,8 @@
         <c:axId val="183405104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="8000"/>
-          <c:min val="6000"/>
+          <c:max val="7800"/>
+          <c:min val="5000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -617,7 +1163,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -630,7 +1176,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Greedy Algorithm Miles Driven</a:t>
                 </a:r>
               </a:p>
@@ -650,7 +1196,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -688,7 +1234,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -773,7 +1319,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -786,20 +1332,20 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>Greedy Algorithm</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
               <a:t> Vs. Permutations Algorithm</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr b="1"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
               <a:t>Total Miles Driven</a:t>
             </a:r>
           </a:p>
@@ -819,7 +1365,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -849,9 +1395,6 @@
               <c:f>Sheet1!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Greedy M</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -879,78 +1422,618 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$11</c:f>
+              <c:f>Sheet1!$E$57:$E$156</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>7068.38</c:v>
+                  <c:v>7080.93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6973.5</c:v>
+                  <c:v>7247.65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7173.4</c:v>
+                  <c:v>7045.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7071.4</c:v>
+                  <c:v>7268.31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7050.68</c:v>
+                  <c:v>7501.47</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7017.29</c:v>
+                  <c:v>7139.96</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7267.28</c:v>
+                  <c:v>6859.35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7349.2</c:v>
+                  <c:v>7236.24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7162.48</c:v>
+                  <c:v>7040.04</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7184.68</c:v>
+                  <c:v>6896.37</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7080.15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7060.23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6955.59</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7218.23</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7250.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7058.79</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7632.98</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7198.41</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6973.74</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7216.63</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6890.17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7397.61</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7069.28</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6831.97</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7106.54</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7023.33</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7160.92</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6781.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6807.68</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6943.89</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6959.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7024.96</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7075.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7005.01</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7170.42</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7376.24</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7117.12</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7198.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7047.24</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7283.84</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7085.15</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7082.14</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7094.44</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7472.1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7267.69</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7194.85</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7072.61</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7214.57</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6809.04</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7153.28</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7009.65</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7328.46</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7170.33</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7169.76</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7228.86</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7177.35</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7219.12</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7267.94</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7093.38</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7163.48</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7283.65</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7061.12</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6948.33</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7170.24</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7223.71</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7175.15</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7107.18</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7234.07</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7212.7</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7001.63</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7103.63</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7330.4</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7468.99</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6887.7</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7167.75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6980.95</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7362.53</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7128.06</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7059.43</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6814.45</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6984.42</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7330.13</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7179.01</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7269.06</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6712.42</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7069.27</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7222.24</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7297.83</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7145.28</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7024.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7086.72</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7131.84</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7131.59</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7059.69</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7187.62</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6818.79</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6977.52</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7378.35</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7165.32</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7367.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:f>Sheet1!$A$57:$A$156</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>7584.43</c:v>
+                  <c:v>6806.18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7298.34</c:v>
+                  <c:v>7394.59</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7452.86</c:v>
+                  <c:v>7001.09</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7451.44</c:v>
+                  <c:v>7163.24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7439.32</c:v>
+                  <c:v>7450.35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7387.73</c:v>
+                  <c:v>7159.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7632.56</c:v>
+                  <c:v>6901.78</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7748.07</c:v>
+                  <c:v>7041.38</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7734.25</c:v>
+                  <c:v>7263.14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7711.72</c:v>
+                  <c:v>6865.61</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6955.32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6895.63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6949.76</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7125.83</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7284.57</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6948.93</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7534.72</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7244.86</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6954.15</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6927.46</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6800.79</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7364.86</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6897.98</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6654.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6912.49</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7013.31</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7028.79</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6675.08</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6609.48</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7029.66</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7041.86</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6980.29</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7111.97</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7007.48</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7071.97</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7132.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7122.43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7005.08</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7027.65</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7032.38</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7138.78</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7117.62</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7023.25</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7441.19</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7285.41</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7248.17</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6984.47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7120.66</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6725.46</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7167.08</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7005.11</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6985.87</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7195.84</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7147.9</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7033.74</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7369.04</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7293.35</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7156.44</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6893.22</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7182.33</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7272.52</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6999.84</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7030.47</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7167.43</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7164.51</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6927.23</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6871.39</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7126.99</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7213.04</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7075.02</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6807.98</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7469.99</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7238.05</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6918.18</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6970.38</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7159.06</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7274.88</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7316.6</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7274.85</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6865.26</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7115.13</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7413.63</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7114.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7308.75</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6624.59</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7159.8</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6987.66</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7222.41</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7002.33</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7147.94</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6936.05</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7127.18</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7198.43</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7075.33</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7032.82</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6791.36</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6827.29</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7322.03</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7339.54</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6991.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1024,7 +2107,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8001</c:v>
@@ -1039,7 +2122,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8001</c:v>
@@ -1069,8 +2152,8 @@
         <c:axId val="183404776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="8000"/>
-          <c:min val="6000"/>
+          <c:max val="7800"/>
+          <c:min val="5000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1095,7 +2178,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1108,15 +2191,15 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Permutation</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
                   <a:t> Algorithm </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Miles Driven</a:t>
                 </a:r>
               </a:p>
@@ -1136,7 +2219,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1174,7 +2257,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1197,8 +2280,8 @@
         <c:axId val="183405104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="8000"/>
-          <c:min val="6000"/>
+          <c:max val="7800"/>
+          <c:min val="5000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1223,7 +2306,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1236,7 +2319,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Greedy Algorithm Miles Driven</a:t>
                 </a:r>
               </a:p>
@@ -1256,7 +2339,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1294,7 +2377,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1379,7 +2462,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1392,20 +2475,16 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Greedy Algorithm</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Vs. Short Line Distance Algorithm</a:t>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t>Short Line Distance Algorithm Vs. Permutation Algorithm</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr b="1"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
               <a:t>Total Miles Driven</a:t>
             </a:r>
           </a:p>
@@ -1425,7 +2504,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1455,9 +2534,6 @@
               <c:f>Sheet1!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Greedy M</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -1485,78 +2561,618 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$11</c:f>
+              <c:f>Sheet1!$E$57:$E$156</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>7068.38</c:v>
+                  <c:v>7080.93</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6973.5</c:v>
+                  <c:v>7247.65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7173.4</c:v>
+                  <c:v>7045.68</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7071.4</c:v>
+                  <c:v>7268.31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7050.68</c:v>
+                  <c:v>7501.47</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7017.29</c:v>
+                  <c:v>7139.96</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7267.28</c:v>
+                  <c:v>6859.35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7349.2</c:v>
+                  <c:v>7236.24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7162.48</c:v>
+                  <c:v>7040.04</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7184.68</c:v>
+                  <c:v>6896.37</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7080.15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7060.23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6955.59</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7218.23</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7250.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7058.79</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7632.98</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7198.41</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6973.74</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7216.63</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6890.17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7397.61</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7069.28</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6831.97</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7106.54</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7023.33</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7160.92</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6781.75</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6807.68</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6943.89</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6959.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7024.96</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7075.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7005.01</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7170.42</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7376.24</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7117.12</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7198.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7047.24</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7283.84</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7085.15</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7082.14</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7094.44</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7472.1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7267.69</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7194.85</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7072.61</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7214.57</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6809.04</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7153.28</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7009.65</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7328.46</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7170.33</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7169.76</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7228.86</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7177.35</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7219.12</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7267.94</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7093.38</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7163.48</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7283.65</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7061.12</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6948.33</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7170.24</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7223.71</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7175.15</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7107.18</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7234.07</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7212.7</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7001.63</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7103.63</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7330.4</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7468.99</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6887.7</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7167.75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6980.95</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7362.53</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7128.06</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7059.43</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6814.45</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6984.42</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7330.13</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7179.01</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>7269.06</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6712.42</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>7069.27</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>7222.24</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7297.83</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7145.28</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7024.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7086.72</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7131.84</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7131.59</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7059.69</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7187.62</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6818.79</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6977.52</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7378.35</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7165.32</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7367.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:f>Sheet1!$C$57:$C$156</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>6815.74</c:v>
+                  <c:v>6237.44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6598.93</c:v>
+                  <c:v>6337.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7021.48</c:v>
+                  <c:v>6024.23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7316.45</c:v>
+                  <c:v>6122.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6860.19</c:v>
+                  <c:v>6808.13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6739.62</c:v>
+                  <c:v>6110.01</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7161.99</c:v>
+                  <c:v>6008.85</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7284.77</c:v>
+                  <c:v>6338.03</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7093.28</c:v>
+                  <c:v>6317.73</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7123.07</c:v>
+                  <c:v>5424.99</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6026.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5907</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5741.49</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6377.09</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6369.62</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5936.71</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6722.97</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6491.93</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6001.82</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6122.66</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5857.49</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6717.15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5932.67</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5880.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5658.17</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6355.98</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6358.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5467.26</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5677.33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6038.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6254.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6174.43</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5893.56</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6392.94</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6287.81</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6211.14</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6255.08</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6555.1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5970.91</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5809.08</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5823.62</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6185.22</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6398.58</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6111.85</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6665.24</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6340.68</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6080.22</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6620.27</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5566.66</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6154.29</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6262.95</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6172.98</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6238.14</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6545.09</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6388.25</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6405.1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6291.95</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5951.94</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6110.31</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6062.96</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6509.27</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6038.47</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6134.27</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6166.52</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6465.14</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6272.41</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6004.38</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6181.66</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6150.16</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6107.65</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6117.48</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6762.83</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6244.14</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5688.76</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6134.09</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6005.05</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6422.23</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6208.02</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6053.21</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5619.48</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5957.26</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6671.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5877.34</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6568.19</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5241.5600000000004</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6020.02</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5984.97</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6090.34</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6311.7</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>6158.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5921.03</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6095.41</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6767.02</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5959.14</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6236.65</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5803.33</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5593.54</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6565.7</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6773.32</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6279.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1630,7 +3246,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8001</c:v>
@@ -1645,7 +3261,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>5999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8001</c:v>
@@ -1675,8 +3291,8 @@
         <c:axId val="183404776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="8000"/>
-          <c:min val="6000"/>
+          <c:max val="7800"/>
+          <c:min val="5000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1701,7 +3317,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1714,7 +3330,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Permutation Algorithm Miles Driven</a:t>
                 </a:r>
               </a:p>
@@ -1734,7 +3350,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1772,7 +3388,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1795,8 +3411,8 @@
         <c:axId val="183405104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="8000"/>
-          <c:min val="6000"/>
+          <c:max val="7800"/>
+          <c:min val="5000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1821,7 +3437,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1834,15 +3450,15 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Short Line Distance Algorithm</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
                   <a:t> </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Miles Driven</a:t>
                 </a:r>
               </a:p>
@@ -1862,7 +3478,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1900,7 +3516,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1985,7 +3601,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1998,23 +3614,23 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>Greedy Algorithm Vs.</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
               <a:t> Short Line Distance Algorithm</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr b="1"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
               <a:t>Average Delivery Time Error in Minutes</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2032,7 +3648,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2084,78 +3700,618 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$11</c:f>
+              <c:f>Sheet1!$D$57:$D$156</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="12">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>88</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="25">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>95</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="30">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="83">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>96</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="86">
                   <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:f>Sheet1!$B$57:$B$156</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>96</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>89</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="22">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>92</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="93">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>92</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>96</c:v>
+                <c:pt idx="98">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2219,7 +4375,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2234,7 +4390,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2261,8 +4417,8 @@
         <c:axId val="298683344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="120"/>
-          <c:min val="80"/>
+          <c:max val="140"/>
+          <c:min val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2287,7 +4443,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2300,14 +4456,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Short Line Distance</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
                   <a:t> Algorithm Average Delivery Times Error (minutes)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2325,7 +4481,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2363,7 +4519,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2386,8 +4542,8 @@
         <c:axId val="298683016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="120"/>
-          <c:min val="80"/>
+          <c:max val="140"/>
+          <c:min val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2412,7 +4568,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2425,18 +4581,25 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Greedy Algorithm Average Delivery</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
                   <a:t> Time Error (minutes) </a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.2128510361732067E-2"/>
+              <c:y val="0.11491094599090607"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2450,7 +4613,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2488,7 +4651,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2506,6 +4669,7 @@
         <c:crossAx val="298683344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2573,7 +4737,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2586,23 +4750,23 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>Greedy Algorithm Vs.</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
               <a:t> Permutation Algorithm</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr b="1"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
               <a:t>Average Delivery Time Error in Minutes</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2620,7 +4784,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2672,78 +4836,618 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$11</c:f>
+              <c:f>Sheet1!$F$57:$F$156</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>115</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>115</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>117</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>117</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>114</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>114</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>117</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>121</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>117</c:v>
+                <c:pt idx="19">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:f>Sheet1!$B$57:$B$156</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>96</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>89</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="9">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="22">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="92">
                   <c:v>92</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="93">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>92</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>96</c:v>
+                <c:pt idx="98">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2807,7 +5511,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2822,7 +5526,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2849,8 +5553,8 @@
         <c:axId val="298683344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="120"/>
-          <c:min val="80"/>
+          <c:max val="140"/>
+          <c:min val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2875,7 +5579,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2888,14 +5592,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Permutation</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
                   <a:t> Algorithm Average Delivery Times Error (minutes)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2913,7 +5617,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2951,7 +5655,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2974,8 +5678,8 @@
         <c:axId val="298683016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="120"/>
-          <c:min val="80"/>
+          <c:max val="140"/>
+          <c:min val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3000,7 +5704,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3013,18 +5717,25 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Greedy Algorithm Average Delivery</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
                   <a:t> Time Error (minutes) </a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.2705768794883872E-2"/>
+              <c:y val="0.14086399763409857"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3038,7 +5749,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3076,7 +5787,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3094,6 +5805,7 @@
         <c:crossAx val="298683344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3161,7 +5873,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3174,23 +5886,25 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Greedy Algorithm Vs.</a:t>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Short Line Distance Algorithm Vs. </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Permutation Algorithm</a:t>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t>Permutation Algorithm</a:t>
             </a:r>
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr b="1"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
               <a:t>Average Delivery Time Error in Minutes</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3208,7 +5922,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3260,78 +5974,618 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$11</c:f>
+              <c:f>Sheet1!$F$57:$F$156</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>115</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>115</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>117</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>117</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>114</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>114</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>117</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>121</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>117</c:v>
+                <c:pt idx="19">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$11</c:f>
+              <c:f>Sheet1!$D$57:$D$156</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="12">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>88</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="25">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>95</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="30">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="83">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>96</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="86">
                   <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3395,7 +6649,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3410,7 +6664,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3437,8 +6691,8 @@
         <c:axId val="298683344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="120"/>
-          <c:min val="80"/>
+          <c:max val="140"/>
+          <c:min val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3463,7 +6717,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3476,14 +6730,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Permutation</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
                   <a:t> Algorithm Average Delivery Times Error (minutes)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3501,7 +6755,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3539,7 +6793,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3562,8 +6816,8 @@
         <c:axId val="298683016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="120"/>
-          <c:min val="80"/>
+          <c:max val="140"/>
+          <c:min val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3588,7 +6842,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3601,26 +6855,33 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Short</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
                   <a:t> Line Distance </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Algorithm Average Delivery</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
                   <a:t> Time Error (minutes) </a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.5352921928789324E-2"/>
+              <c:y val="0.1633992089017042"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3634,7 +6895,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3672,7 +6933,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3690,6 +6951,7 @@
         <c:crossAx val="298683344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -7270,7 +10532,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>: 100</a:t>
+            <a:t>: 10</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -7407,7 +10669,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> short line distance algorithm drives the least amount of total miles, the </a:t>
+            <a:t> short line distance algorithm drives the least amount of total miles. </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7424,7 +10686,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-            <a:t>According to the parametric graphs, the greedy algorithm again has lower deliverty time errors than both the permutation and short line distance algorithms.</a:t>
+            <a:t>According to the parametric graphs, the greedy algorithm has lower deliverty time errors than both the permutation and short line distance algorithms. The short line distance algorithm does better than the permutation algorithm</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="1"/>
         </a:p>
@@ -7530,10 +10792,14 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data - Copy" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="data" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -7800,15 +11066,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A2:I156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.85546875" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
@@ -7817,71 +11088,15 @@
     <col min="14" max="14" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H2">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+      <c r="I2">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>7584.43</v>
-      </c>
-      <c r="B2">
-        <v>96</v>
-      </c>
-      <c r="C2">
-        <v>6815.74</v>
-      </c>
-      <c r="D2">
-        <v>93</v>
-      </c>
-      <c r="E2">
-        <v>7068.38</v>
-      </c>
-      <c r="F2">
-        <v>115</v>
-      </c>
-      <c r="H2">
-        <v>5999</v>
-      </c>
-      <c r="I2">
-        <v>5999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>7298.34</v>
-      </c>
-      <c r="B3">
-        <v>89</v>
-      </c>
-      <c r="C3">
-        <v>6598.93</v>
-      </c>
-      <c r="D3">
-        <v>88</v>
-      </c>
-      <c r="E3">
-        <v>6973.5</v>
-      </c>
-      <c r="F3">
-        <v>115</v>
-      </c>
+    <row r="3" spans="5:9" x14ac:dyDescent="0.25">
       <c r="H3">
         <v>8001</v>
       </c>
@@ -7889,91 +11104,15 @@
         <v>8001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>7452.86</v>
-      </c>
-      <c r="B4">
-        <v>93</v>
-      </c>
-      <c r="C4">
-        <v>7021.48</v>
-      </c>
-      <c r="D4">
-        <v>95</v>
-      </c>
-      <c r="E4">
-        <v>7173.4</v>
-      </c>
-      <c r="F4">
-        <v>117</v>
+    <row r="6" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>7451.44</v>
-      </c>
-      <c r="B5">
-        <v>95</v>
-      </c>
-      <c r="C5">
-        <v>7316.45</v>
-      </c>
-      <c r="D5">
-        <v>105</v>
-      </c>
-      <c r="E5">
-        <v>7071.4</v>
-      </c>
-      <c r="F5">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>7439.32</v>
-      </c>
-      <c r="B6">
-        <v>92</v>
-      </c>
-      <c r="C6">
-        <v>6860.19</v>
-      </c>
-      <c r="D6">
-        <v>93</v>
-      </c>
-      <c r="E6">
-        <v>7050.68</v>
-      </c>
-      <c r="F6">
-        <v>114</v>
-      </c>
-      <c r="H6">
-        <v>5999</v>
-      </c>
-      <c r="I6">
-        <v>5999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>7387.73</v>
-      </c>
-      <c r="B7">
-        <v>92</v>
-      </c>
-      <c r="C7">
-        <v>6739.62</v>
-      </c>
-      <c r="D7">
-        <v>90</v>
-      </c>
-      <c r="E7">
-        <v>7017.29</v>
-      </c>
-      <c r="F7">
-        <v>114</v>
-      </c>
+    <row r="7" spans="5:9" x14ac:dyDescent="0.25">
       <c r="H7">
         <v>8001</v>
       </c>
@@ -7981,93 +11120,13 @@
         <v>8001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7632.56</v>
-      </c>
-      <c r="B8">
-        <v>95</v>
-      </c>
-      <c r="C8">
-        <v>7161.99</v>
-      </c>
-      <c r="D8">
-        <v>96</v>
-      </c>
-      <c r="E8">
-        <v>7267.28</v>
-      </c>
-      <c r="F8">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7748.07</v>
-      </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-      <c r="C9">
-        <v>7284.77</v>
-      </c>
-      <c r="D9">
-        <v>101</v>
-      </c>
-      <c r="E9">
-        <v>7349.2</v>
-      </c>
-      <c r="F9">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>7734.25</v>
-      </c>
-      <c r="B10">
-        <v>98</v>
-      </c>
-      <c r="C10">
-        <v>7093.28</v>
-      </c>
-      <c r="D10">
-        <v>97</v>
-      </c>
-      <c r="E10">
-        <v>7162.48</v>
-      </c>
-      <c r="F10">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>7711.72</v>
-      </c>
-      <c r="B11">
-        <v>96</v>
-      </c>
-      <c r="C11">
-        <v>7123.07</v>
-      </c>
-      <c r="D11">
-        <v>94</v>
-      </c>
-      <c r="E11">
-        <v>7184.68</v>
-      </c>
-      <c r="F11">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E12" s="1"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0</v>
       </c>
@@ -8075,12 +11134,2032 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
+        <v>141</v>
+      </c>
+      <c r="B54">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>6806.18</v>
+      </c>
+      <c r="B57">
+        <v>83</v>
+      </c>
+      <c r="C57">
+        <v>6237.44</v>
+      </c>
+      <c r="D57">
+        <v>98</v>
+      </c>
+      <c r="E57">
+        <v>7080.93</v>
+      </c>
+      <c r="F57">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>7394.59</v>
+      </c>
+      <c r="B58">
+        <v>91</v>
+      </c>
+      <c r="C58">
+        <v>6337.3</v>
+      </c>
+      <c r="D58">
+        <v>100</v>
+      </c>
+      <c r="E58">
+        <v>7247.65</v>
+      </c>
+      <c r="F58">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>7001.09</v>
+      </c>
+      <c r="B59">
+        <v>86</v>
+      </c>
+      <c r="C59">
+        <v>6024.23</v>
+      </c>
+      <c r="D59">
+        <v>94</v>
+      </c>
+      <c r="E59">
+        <v>7045.68</v>
+      </c>
+      <c r="F59">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>7163.24</v>
+      </c>
+      <c r="B60">
+        <v>86</v>
+      </c>
+      <c r="C60">
+        <v>6122.5</v>
+      </c>
+      <c r="D60">
+        <v>96</v>
+      </c>
+      <c r="E60">
+        <v>7268.31</v>
+      </c>
+      <c r="F60">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>7450.35</v>
+      </c>
+      <c r="B61">
+        <v>95</v>
+      </c>
+      <c r="C61">
+        <v>6808.13</v>
+      </c>
+      <c r="D61">
+        <v>107</v>
+      </c>
+      <c r="E61">
+        <v>7501.47</v>
+      </c>
+      <c r="F61">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>7159.01</v>
+      </c>
+      <c r="B62">
+        <v>86</v>
+      </c>
+      <c r="C62">
+        <v>6110.01</v>
+      </c>
+      <c r="D62">
+        <v>95</v>
+      </c>
+      <c r="E62">
+        <v>7139.96</v>
+      </c>
+      <c r="F62">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>6901.78</v>
+      </c>
+      <c r="B63">
+        <v>82</v>
+      </c>
+      <c r="C63">
+        <v>6008.85</v>
+      </c>
+      <c r="D63">
+        <v>94</v>
+      </c>
+      <c r="E63">
+        <v>6859.35</v>
+      </c>
+      <c r="F63">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>7041.38</v>
+      </c>
+      <c r="B64">
+        <v>85</v>
+      </c>
+      <c r="C64">
+        <v>6338.03</v>
+      </c>
+      <c r="D64">
+        <v>100</v>
+      </c>
+      <c r="E64">
+        <v>7236.24</v>
+      </c>
+      <c r="F64">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>7263.14</v>
+      </c>
+      <c r="B65">
+        <v>89</v>
+      </c>
+      <c r="C65">
+        <v>6317.73</v>
+      </c>
+      <c r="D65">
+        <v>101</v>
+      </c>
+      <c r="E65">
+        <v>7040.04</v>
+      </c>
+      <c r="F65">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>6865.61</v>
+      </c>
+      <c r="B66">
+        <v>83</v>
+      </c>
+      <c r="C66">
+        <v>5424.99</v>
+      </c>
+      <c r="D66">
+        <v>85</v>
+      </c>
+      <c r="E66">
+        <v>6896.37</v>
+      </c>
+      <c r="F66">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>6955.32</v>
+      </c>
+      <c r="B67">
+        <v>84</v>
+      </c>
+      <c r="C67">
+        <v>6026.7</v>
+      </c>
+      <c r="D67">
+        <v>96</v>
+      </c>
+      <c r="E67">
+        <v>7080.15</v>
+      </c>
+      <c r="F67">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>6895.63</v>
+      </c>
+      <c r="B68">
+        <v>82</v>
+      </c>
+      <c r="C68">
+        <v>5907</v>
+      </c>
+      <c r="D68">
+        <v>93</v>
+      </c>
+      <c r="E68">
+        <v>7060.23</v>
+      </c>
+      <c r="F68">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>6949.76</v>
+      </c>
+      <c r="B69">
+        <v>84</v>
+      </c>
+      <c r="C69">
+        <v>5741.49</v>
+      </c>
+      <c r="D69">
+        <v>92</v>
+      </c>
+      <c r="E69">
+        <v>6955.59</v>
+      </c>
+      <c r="F69">
         <v>120</v>
       </c>
-      <c r="B54">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>7125.83</v>
+      </c>
+      <c r="B70">
+        <v>90</v>
+      </c>
+      <c r="C70">
+        <v>6377.09</v>
+      </c>
+      <c r="D70">
+        <v>100</v>
+      </c>
+      <c r="E70">
+        <v>7218.23</v>
+      </c>
+      <c r="F70">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>7284.57</v>
+      </c>
+      <c r="B71">
+        <v>91</v>
+      </c>
+      <c r="C71">
+        <v>6369.62</v>
+      </c>
+      <c r="D71">
+        <v>101</v>
+      </c>
+      <c r="E71">
+        <v>7250.5</v>
+      </c>
+      <c r="F71">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>6948.93</v>
+      </c>
+      <c r="B72">
+        <v>82</v>
+      </c>
+      <c r="C72">
+        <v>5936.71</v>
+      </c>
+      <c r="D72">
+        <v>94</v>
+      </c>
+      <c r="E72">
+        <v>7058.79</v>
+      </c>
+      <c r="F72">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>7534.72</v>
+      </c>
+      <c r="B73">
+        <v>94</v>
+      </c>
+      <c r="C73">
+        <v>6722.97</v>
+      </c>
+      <c r="D73">
+        <v>103</v>
+      </c>
+      <c r="E73">
+        <v>7632.98</v>
+      </c>
+      <c r="F73">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>7244.86</v>
+      </c>
+      <c r="B74">
+        <v>90</v>
+      </c>
+      <c r="C74">
+        <v>6491.93</v>
+      </c>
+      <c r="D74">
+        <v>102</v>
+      </c>
+      <c r="E74">
+        <v>7198.41</v>
+      </c>
+      <c r="F74">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>6954.15</v>
+      </c>
+      <c r="B75">
+        <v>83</v>
+      </c>
+      <c r="C75">
+        <v>6001.82</v>
+      </c>
+      <c r="D75">
+        <v>93</v>
+      </c>
+      <c r="E75">
+        <v>6973.74</v>
+      </c>
+      <c r="F75">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>6927.46</v>
+      </c>
+      <c r="B76">
+        <v>83</v>
+      </c>
+      <c r="C76">
+        <v>6122.66</v>
+      </c>
+      <c r="D76">
+        <v>96</v>
+      </c>
+      <c r="E76">
+        <v>7216.63</v>
+      </c>
+      <c r="F76">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>6800.79</v>
+      </c>
+      <c r="B77">
+        <v>82</v>
+      </c>
+      <c r="C77">
+        <v>5857.49</v>
+      </c>
+      <c r="D77">
+        <v>94</v>
+      </c>
+      <c r="E77">
+        <v>6890.17</v>
+      </c>
+      <c r="F77">
         <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>7364.86</v>
+      </c>
+      <c r="B78">
+        <v>93</v>
+      </c>
+      <c r="C78">
+        <v>6717.15</v>
+      </c>
+      <c r="D78">
+        <v>105</v>
+      </c>
+      <c r="E78">
+        <v>7397.61</v>
+      </c>
+      <c r="F78">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>6897.98</v>
+      </c>
+      <c r="B79">
+        <v>82</v>
+      </c>
+      <c r="C79">
+        <v>5932.67</v>
+      </c>
+      <c r="D79">
+        <v>94</v>
+      </c>
+      <c r="E79">
+        <v>7069.28</v>
+      </c>
+      <c r="F79">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>6654.23</v>
+      </c>
+      <c r="B80">
+        <v>81</v>
+      </c>
+      <c r="C80">
+        <v>5880.4</v>
+      </c>
+      <c r="D80">
+        <v>94</v>
+      </c>
+      <c r="E80">
+        <v>6831.97</v>
+      </c>
+      <c r="F80">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>6912.49</v>
+      </c>
+      <c r="B81">
+        <v>85</v>
+      </c>
+      <c r="C81">
+        <v>5658.17</v>
+      </c>
+      <c r="D81">
+        <v>88</v>
+      </c>
+      <c r="E81">
+        <v>7106.54</v>
+      </c>
+      <c r="F81">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>7013.31</v>
+      </c>
+      <c r="B82">
+        <v>83</v>
+      </c>
+      <c r="C82">
+        <v>6355.98</v>
+      </c>
+      <c r="D82">
+        <v>101</v>
+      </c>
+      <c r="E82">
+        <v>7023.33</v>
+      </c>
+      <c r="F82">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>7028.79</v>
+      </c>
+      <c r="B83">
+        <v>84</v>
+      </c>
+      <c r="C83">
+        <v>6358.27</v>
+      </c>
+      <c r="D83">
+        <v>99</v>
+      </c>
+      <c r="E83">
+        <v>7160.92</v>
+      </c>
+      <c r="F83">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>6675.08</v>
+      </c>
+      <c r="B84">
+        <v>80</v>
+      </c>
+      <c r="C84">
+        <v>5467.26</v>
+      </c>
+      <c r="D84">
+        <v>87</v>
+      </c>
+      <c r="E84">
+        <v>6781.75</v>
+      </c>
+      <c r="F84">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>6609.48</v>
+      </c>
+      <c r="B85">
+        <v>78</v>
+      </c>
+      <c r="C85">
+        <v>5677.33</v>
+      </c>
+      <c r="D85">
+        <v>91</v>
+      </c>
+      <c r="E85">
+        <v>6807.68</v>
+      </c>
+      <c r="F85">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>7029.66</v>
+      </c>
+      <c r="B86">
+        <v>86</v>
+      </c>
+      <c r="C86">
+        <v>6038.2</v>
+      </c>
+      <c r="D86">
+        <v>95</v>
+      </c>
+      <c r="E86">
+        <v>6943.89</v>
+      </c>
+      <c r="F86">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>7041.86</v>
+      </c>
+      <c r="B87">
+        <v>85</v>
+      </c>
+      <c r="C87">
+        <v>6254.9</v>
+      </c>
+      <c r="D87">
+        <v>100</v>
+      </c>
+      <c r="E87">
+        <v>6959.3</v>
+      </c>
+      <c r="F87">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>6980.29</v>
+      </c>
+      <c r="B88">
+        <v>84</v>
+      </c>
+      <c r="C88">
+        <v>6174.43</v>
+      </c>
+      <c r="D88">
+        <v>97</v>
+      </c>
+      <c r="E88">
+        <v>7024.96</v>
+      </c>
+      <c r="F88">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>7111.97</v>
+      </c>
+      <c r="B89">
+        <v>89</v>
+      </c>
+      <c r="C89">
+        <v>5893.56</v>
+      </c>
+      <c r="D89">
+        <v>92</v>
+      </c>
+      <c r="E89">
+        <v>7075.6</v>
+      </c>
+      <c r="F89">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>7007.48</v>
+      </c>
+      <c r="B90">
+        <v>86</v>
+      </c>
+      <c r="C90">
+        <v>6392.94</v>
+      </c>
+      <c r="D90">
+        <v>99</v>
+      </c>
+      <c r="E90">
+        <v>7005.01</v>
+      </c>
+      <c r="F90">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>7071.97</v>
+      </c>
+      <c r="B91">
+        <v>86</v>
+      </c>
+      <c r="C91">
+        <v>6287.81</v>
+      </c>
+      <c r="D91">
+        <v>98</v>
+      </c>
+      <c r="E91">
+        <v>7170.42</v>
+      </c>
+      <c r="F91">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>7132.3</v>
+      </c>
+      <c r="B92">
+        <v>89</v>
+      </c>
+      <c r="C92">
+        <v>6211.14</v>
+      </c>
+      <c r="D92">
+        <v>97</v>
+      </c>
+      <c r="E92">
+        <v>7376.24</v>
+      </c>
+      <c r="F92">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>7122.43</v>
+      </c>
+      <c r="B93">
+        <v>90</v>
+      </c>
+      <c r="C93">
+        <v>6255.08</v>
+      </c>
+      <c r="D93">
+        <v>101</v>
+      </c>
+      <c r="E93">
+        <v>7117.12</v>
+      </c>
+      <c r="F93">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>7005.08</v>
+      </c>
+      <c r="B94">
+        <v>82</v>
+      </c>
+      <c r="C94">
+        <v>6555.1</v>
+      </c>
+      <c r="D94">
+        <v>101</v>
+      </c>
+      <c r="E94">
+        <v>7198.3</v>
+      </c>
+      <c r="F94">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>7027.65</v>
+      </c>
+      <c r="B95">
+        <v>87</v>
+      </c>
+      <c r="C95">
+        <v>5970.91</v>
+      </c>
+      <c r="D95">
+        <v>94</v>
+      </c>
+      <c r="E95">
+        <v>7047.24</v>
+      </c>
+      <c r="F95">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>7032.38</v>
+      </c>
+      <c r="B96">
+        <v>85</v>
+      </c>
+      <c r="C96">
+        <v>5809.08</v>
+      </c>
+      <c r="D96">
+        <v>91</v>
+      </c>
+      <c r="E96">
+        <v>7283.84</v>
+      </c>
+      <c r="F96">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>7138.78</v>
+      </c>
+      <c r="B97">
+        <v>86</v>
+      </c>
+      <c r="C97">
+        <v>5823.62</v>
+      </c>
+      <c r="D97">
+        <v>90</v>
+      </c>
+      <c r="E97">
+        <v>7085.15</v>
+      </c>
+      <c r="F97">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>7117.62</v>
+      </c>
+      <c r="B98">
+        <v>90</v>
+      </c>
+      <c r="C98">
+        <v>6185.22</v>
+      </c>
+      <c r="D98">
+        <v>100</v>
+      </c>
+      <c r="E98">
+        <v>7082.14</v>
+      </c>
+      <c r="F98">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>7023.25</v>
+      </c>
+      <c r="B99">
+        <v>87</v>
+      </c>
+      <c r="C99">
+        <v>6398.58</v>
+      </c>
+      <c r="D99">
+        <v>103</v>
+      </c>
+      <c r="E99">
+        <v>7094.44</v>
+      </c>
+      <c r="F99">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>7441.19</v>
+      </c>
+      <c r="B100">
+        <v>93</v>
+      </c>
+      <c r="C100">
+        <v>6111.85</v>
+      </c>
+      <c r="D100">
+        <v>97</v>
+      </c>
+      <c r="E100">
+        <v>7472.1</v>
+      </c>
+      <c r="F100">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>7285.41</v>
+      </c>
+      <c r="B101">
+        <v>90</v>
+      </c>
+      <c r="C101">
+        <v>6665.24</v>
+      </c>
+      <c r="D101">
+        <v>106</v>
+      </c>
+      <c r="E101">
+        <v>7267.69</v>
+      </c>
+      <c r="F101">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>7248.17</v>
+      </c>
+      <c r="B102">
+        <v>91</v>
+      </c>
+      <c r="C102">
+        <v>6340.68</v>
+      </c>
+      <c r="D102">
+        <v>99</v>
+      </c>
+      <c r="E102">
+        <v>7194.85</v>
+      </c>
+      <c r="F102">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>6984.47</v>
+      </c>
+      <c r="B103">
+        <v>85</v>
+      </c>
+      <c r="C103">
+        <v>6080.22</v>
+      </c>
+      <c r="D103">
+        <v>96</v>
+      </c>
+      <c r="E103">
+        <v>7072.61</v>
+      </c>
+      <c r="F103">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>7120.66</v>
+      </c>
+      <c r="B104">
+        <v>90</v>
+      </c>
+      <c r="C104">
+        <v>6620.27</v>
+      </c>
+      <c r="D104">
+        <v>106</v>
+      </c>
+      <c r="E104">
+        <v>7214.57</v>
+      </c>
+      <c r="F104">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>6725.46</v>
+      </c>
+      <c r="B105">
+        <v>81</v>
+      </c>
+      <c r="C105">
+        <v>5566.66</v>
+      </c>
+      <c r="D105">
+        <v>88</v>
+      </c>
+      <c r="E105">
+        <v>6809.04</v>
+      </c>
+      <c r="F105">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>7167.08</v>
+      </c>
+      <c r="B106">
+        <v>87</v>
+      </c>
+      <c r="C106">
+        <v>6154.29</v>
+      </c>
+      <c r="D106">
+        <v>97</v>
+      </c>
+      <c r="E106">
+        <v>7153.28</v>
+      </c>
+      <c r="F106">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>7005.11</v>
+      </c>
+      <c r="B107">
+        <v>86</v>
+      </c>
+      <c r="C107">
+        <v>6262.95</v>
+      </c>
+      <c r="D107">
+        <v>99</v>
+      </c>
+      <c r="E107">
+        <v>7009.65</v>
+      </c>
+      <c r="F107">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>6985.87</v>
+      </c>
+      <c r="B108">
+        <v>86</v>
+      </c>
+      <c r="C108">
+        <v>6172.98</v>
+      </c>
+      <c r="D108">
+        <v>98</v>
+      </c>
+      <c r="E108">
+        <v>7328.46</v>
+      </c>
+      <c r="F108">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>7195.84</v>
+      </c>
+      <c r="B109">
+        <v>88</v>
+      </c>
+      <c r="C109">
+        <v>6238.14</v>
+      </c>
+      <c r="D109">
+        <v>99</v>
+      </c>
+      <c r="E109">
+        <v>7170.33</v>
+      </c>
+      <c r="F109">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>7147.9</v>
+      </c>
+      <c r="B110">
+        <v>88</v>
+      </c>
+      <c r="C110">
+        <v>6545.09</v>
+      </c>
+      <c r="D110">
+        <v>103</v>
+      </c>
+      <c r="E110">
+        <v>7169.76</v>
+      </c>
+      <c r="F110">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>7033.74</v>
+      </c>
+      <c r="B111">
+        <v>84</v>
+      </c>
+      <c r="C111">
+        <v>6388.25</v>
+      </c>
+      <c r="D111">
+        <v>102</v>
+      </c>
+      <c r="E111">
+        <v>7228.86</v>
+      </c>
+      <c r="F111">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>7369.04</v>
+      </c>
+      <c r="B112">
+        <v>94</v>
+      </c>
+      <c r="C112">
+        <v>6405.1</v>
+      </c>
+      <c r="D112">
+        <v>101</v>
+      </c>
+      <c r="E112">
+        <v>7177.35</v>
+      </c>
+      <c r="F112">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>7293.35</v>
+      </c>
+      <c r="B113">
+        <v>90</v>
+      </c>
+      <c r="C113">
+        <v>6291.95</v>
+      </c>
+      <c r="D113">
+        <v>100</v>
+      </c>
+      <c r="E113">
+        <v>7219.12</v>
+      </c>
+      <c r="F113">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>7156.44</v>
+      </c>
+      <c r="B114">
+        <v>84</v>
+      </c>
+      <c r="C114">
+        <v>5951.94</v>
+      </c>
+      <c r="D114">
+        <v>94</v>
+      </c>
+      <c r="E114">
+        <v>7267.94</v>
+      </c>
+      <c r="F114">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>6893.22</v>
+      </c>
+      <c r="B115">
+        <v>82</v>
+      </c>
+      <c r="C115">
+        <v>6110.31</v>
+      </c>
+      <c r="D115">
+        <v>96</v>
+      </c>
+      <c r="E115">
+        <v>7093.38</v>
+      </c>
+      <c r="F115">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>7182.33</v>
+      </c>
+      <c r="B116">
+        <v>87</v>
+      </c>
+      <c r="C116">
+        <v>6062.96</v>
+      </c>
+      <c r="D116">
+        <v>95</v>
+      </c>
+      <c r="E116">
+        <v>7163.48</v>
+      </c>
+      <c r="F116">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>7272.52</v>
+      </c>
+      <c r="B117">
+        <v>90</v>
+      </c>
+      <c r="C117">
+        <v>6509.27</v>
+      </c>
+      <c r="D117">
+        <v>102</v>
+      </c>
+      <c r="E117">
+        <v>7283.65</v>
+      </c>
+      <c r="F117">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>6999.84</v>
+      </c>
+      <c r="B118">
+        <v>86</v>
+      </c>
+      <c r="C118">
+        <v>6038.47</v>
+      </c>
+      <c r="D118">
+        <v>95</v>
+      </c>
+      <c r="E118">
+        <v>7061.12</v>
+      </c>
+      <c r="F118">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>7030.47</v>
+      </c>
+      <c r="B119">
+        <v>84</v>
+      </c>
+      <c r="C119">
+        <v>6134.27</v>
+      </c>
+      <c r="D119">
+        <v>98</v>
+      </c>
+      <c r="E119">
+        <v>6948.33</v>
+      </c>
+      <c r="F119">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>7167.43</v>
+      </c>
+      <c r="B120">
+        <v>89</v>
+      </c>
+      <c r="C120">
+        <v>6166.52</v>
+      </c>
+      <c r="D120">
+        <v>96</v>
+      </c>
+      <c r="E120">
+        <v>7170.24</v>
+      </c>
+      <c r="F120">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>7164.51</v>
+      </c>
+      <c r="B121">
+        <v>87</v>
+      </c>
+      <c r="C121">
+        <v>6465.14</v>
+      </c>
+      <c r="D121">
+        <v>101</v>
+      </c>
+      <c r="E121">
+        <v>7223.71</v>
+      </c>
+      <c r="F121">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>6927.23</v>
+      </c>
+      <c r="B122">
+        <v>85</v>
+      </c>
+      <c r="C122">
+        <v>6272.41</v>
+      </c>
+      <c r="D122">
+        <v>99</v>
+      </c>
+      <c r="E122">
+        <v>7175.15</v>
+      </c>
+      <c r="F122">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>6871.39</v>
+      </c>
+      <c r="B123">
+        <v>85</v>
+      </c>
+      <c r="C123">
+        <v>6004.38</v>
+      </c>
+      <c r="D123">
+        <v>96</v>
+      </c>
+      <c r="E123">
+        <v>7107.18</v>
+      </c>
+      <c r="F123">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>7126.99</v>
+      </c>
+      <c r="B124">
+        <v>86</v>
+      </c>
+      <c r="C124">
+        <v>6181.66</v>
+      </c>
+      <c r="D124">
+        <v>96</v>
+      </c>
+      <c r="E124">
+        <v>7234.07</v>
+      </c>
+      <c r="F124">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>7213.04</v>
+      </c>
+      <c r="B125">
+        <v>89</v>
+      </c>
+      <c r="C125">
+        <v>6150.16</v>
+      </c>
+      <c r="D125">
+        <v>97</v>
+      </c>
+      <c r="E125">
+        <v>7212.7</v>
+      </c>
+      <c r="F125">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>7075.02</v>
+      </c>
+      <c r="B126">
+        <v>88</v>
+      </c>
+      <c r="C126">
+        <v>6107.65</v>
+      </c>
+      <c r="D126">
+        <v>98</v>
+      </c>
+      <c r="E126">
+        <v>7001.63</v>
+      </c>
+      <c r="F126">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>6807.98</v>
+      </c>
+      <c r="B127">
+        <v>80</v>
+      </c>
+      <c r="C127">
+        <v>6117.48</v>
+      </c>
+      <c r="D127">
+        <v>97</v>
+      </c>
+      <c r="E127">
+        <v>7103.63</v>
+      </c>
+      <c r="F127">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>7469.99</v>
+      </c>
+      <c r="B128">
+        <v>93</v>
+      </c>
+      <c r="C128">
+        <v>6762.83</v>
+      </c>
+      <c r="D128">
+        <v>106</v>
+      </c>
+      <c r="E128">
+        <v>7330.4</v>
+      </c>
+      <c r="F128">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>7238.05</v>
+      </c>
+      <c r="B129">
+        <v>90</v>
+      </c>
+      <c r="C129">
+        <v>6244.14</v>
+      </c>
+      <c r="D129">
+        <v>98</v>
+      </c>
+      <c r="E129">
+        <v>7468.99</v>
+      </c>
+      <c r="F129">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>6918.18</v>
+      </c>
+      <c r="B130">
+        <v>83</v>
+      </c>
+      <c r="C130">
+        <v>5688.76</v>
+      </c>
+      <c r="D130">
+        <v>91</v>
+      </c>
+      <c r="E130">
+        <v>6887.7</v>
+      </c>
+      <c r="F130">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>6970.38</v>
+      </c>
+      <c r="B131">
+        <v>85</v>
+      </c>
+      <c r="C131">
+        <v>6134.09</v>
+      </c>
+      <c r="D131">
+        <v>97</v>
+      </c>
+      <c r="E131">
+        <v>7167.75</v>
+      </c>
+      <c r="F131">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>7159.06</v>
+      </c>
+      <c r="B132">
+        <v>86</v>
+      </c>
+      <c r="C132">
+        <v>6005.05</v>
+      </c>
+      <c r="D132">
+        <v>95</v>
+      </c>
+      <c r="E132">
+        <v>6980.95</v>
+      </c>
+      <c r="F132">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>7274.88</v>
+      </c>
+      <c r="B133">
+        <v>89</v>
+      </c>
+      <c r="C133">
+        <v>6422.23</v>
+      </c>
+      <c r="D133">
+        <v>100</v>
+      </c>
+      <c r="E133">
+        <v>7362.53</v>
+      </c>
+      <c r="F133">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>7316.6</v>
+      </c>
+      <c r="B134">
+        <v>91</v>
+      </c>
+      <c r="C134">
+        <v>6208.02</v>
+      </c>
+      <c r="D134">
+        <v>100</v>
+      </c>
+      <c r="E134">
+        <v>7128.06</v>
+      </c>
+      <c r="F134">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>7274.85</v>
+      </c>
+      <c r="B135">
+        <v>91</v>
+      </c>
+      <c r="C135">
+        <v>6053.21</v>
+      </c>
+      <c r="D135">
+        <v>97</v>
+      </c>
+      <c r="E135">
+        <v>7059.43</v>
+      </c>
+      <c r="F135">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>6865.26</v>
+      </c>
+      <c r="B136">
+        <v>83</v>
+      </c>
+      <c r="C136">
+        <v>5619.48</v>
+      </c>
+      <c r="D136">
+        <v>89</v>
+      </c>
+      <c r="E136">
+        <v>6814.45</v>
+      </c>
+      <c r="F136">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>7115.13</v>
+      </c>
+      <c r="B137">
+        <v>89</v>
+      </c>
+      <c r="C137">
+        <v>5957.26</v>
+      </c>
+      <c r="D137">
+        <v>95</v>
+      </c>
+      <c r="E137">
+        <v>6984.42</v>
+      </c>
+      <c r="F137">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>7413.63</v>
+      </c>
+      <c r="B138">
+        <v>94</v>
+      </c>
+      <c r="C138">
+        <v>6671.81</v>
+      </c>
+      <c r="D138">
+        <v>104</v>
+      </c>
+      <c r="E138">
+        <v>7330.13</v>
+      </c>
+      <c r="F138">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>7114.82</v>
+      </c>
+      <c r="B139">
+        <v>85</v>
+      </c>
+      <c r="C139">
+        <v>5877.34</v>
+      </c>
+      <c r="D139">
+        <v>93</v>
+      </c>
+      <c r="E139">
+        <v>7179.01</v>
+      </c>
+      <c r="F139">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>7308.75</v>
+      </c>
+      <c r="B140">
+        <v>89</v>
+      </c>
+      <c r="C140">
+        <v>6568.19</v>
+      </c>
+      <c r="D140">
+        <v>104</v>
+      </c>
+      <c r="E140">
+        <v>7269.06</v>
+      </c>
+      <c r="F140">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>6624.59</v>
+      </c>
+      <c r="B141">
+        <v>79</v>
+      </c>
+      <c r="C141">
+        <v>5241.5600000000004</v>
+      </c>
+      <c r="D141">
+        <v>85</v>
+      </c>
+      <c r="E141">
+        <v>6712.42</v>
+      </c>
+      <c r="F141">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>7159.8</v>
+      </c>
+      <c r="B142">
+        <v>89</v>
+      </c>
+      <c r="C142">
+        <v>6020.02</v>
+      </c>
+      <c r="D142">
+        <v>96</v>
+      </c>
+      <c r="E142">
+        <v>7069.27</v>
+      </c>
+      <c r="F142">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>6987.66</v>
+      </c>
+      <c r="B143">
+        <v>83</v>
+      </c>
+      <c r="C143">
+        <v>5984.97</v>
+      </c>
+      <c r="D143">
+        <v>94</v>
+      </c>
+      <c r="E143">
+        <v>7222.24</v>
+      </c>
+      <c r="F143">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>7222.41</v>
+      </c>
+      <c r="B144">
+        <v>87</v>
+      </c>
+      <c r="C144">
+        <v>6090.34</v>
+      </c>
+      <c r="D144">
+        <v>93</v>
+      </c>
+      <c r="E144">
+        <v>7297.83</v>
+      </c>
+      <c r="F144">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>7002.33</v>
+      </c>
+      <c r="B145">
+        <v>84</v>
+      </c>
+      <c r="C145">
+        <v>6311.7</v>
+      </c>
+      <c r="D145">
+        <v>99</v>
+      </c>
+      <c r="E145">
+        <v>7145.28</v>
+      </c>
+      <c r="F145">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>7147.94</v>
+      </c>
+      <c r="B146">
+        <v>90</v>
+      </c>
+      <c r="C146">
+        <v>6158.89</v>
+      </c>
+      <c r="D146">
+        <v>99</v>
+      </c>
+      <c r="E146">
+        <v>7024.9</v>
+      </c>
+      <c r="F146">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>6936.05</v>
+      </c>
+      <c r="B147">
+        <v>82</v>
+      </c>
+      <c r="C147">
+        <v>5921.03</v>
+      </c>
+      <c r="D147">
+        <v>94</v>
+      </c>
+      <c r="E147">
+        <v>7086.72</v>
+      </c>
+      <c r="F147">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>7127.18</v>
+      </c>
+      <c r="B148">
+        <v>87</v>
+      </c>
+      <c r="C148">
+        <v>6095.41</v>
+      </c>
+      <c r="D148">
+        <v>96</v>
+      </c>
+      <c r="E148">
+        <v>7131.84</v>
+      </c>
+      <c r="F148">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>7198.43</v>
+      </c>
+      <c r="B149">
+        <v>92</v>
+      </c>
+      <c r="C149">
+        <v>6767.02</v>
+      </c>
+      <c r="D149">
+        <v>108</v>
+      </c>
+      <c r="E149">
+        <v>7131.59</v>
+      </c>
+      <c r="F149">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>7075.33</v>
+      </c>
+      <c r="B150">
+        <v>88</v>
+      </c>
+      <c r="C150">
+        <v>5959.14</v>
+      </c>
+      <c r="D150">
+        <v>94</v>
+      </c>
+      <c r="E150">
+        <v>7059.69</v>
+      </c>
+      <c r="F150">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>7032.82</v>
+      </c>
+      <c r="B151">
+        <v>86</v>
+      </c>
+      <c r="C151">
+        <v>6236.65</v>
+      </c>
+      <c r="D151">
+        <v>98</v>
+      </c>
+      <c r="E151">
+        <v>7187.62</v>
+      </c>
+      <c r="F151">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>6791.36</v>
+      </c>
+      <c r="B152">
+        <v>82</v>
+      </c>
+      <c r="C152">
+        <v>5803.33</v>
+      </c>
+      <c r="D152">
+        <v>94</v>
+      </c>
+      <c r="E152">
+        <v>6818.79</v>
+      </c>
+      <c r="F152">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>6827.29</v>
+      </c>
+      <c r="B153">
+        <v>79</v>
+      </c>
+      <c r="C153">
+        <v>5593.54</v>
+      </c>
+      <c r="D153">
+        <v>88</v>
+      </c>
+      <c r="E153">
+        <v>6977.52</v>
+      </c>
+      <c r="F153">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>7322.03</v>
+      </c>
+      <c r="B154">
+        <v>92</v>
+      </c>
+      <c r="C154">
+        <v>6565.7</v>
+      </c>
+      <c r="D154">
+        <v>106</v>
+      </c>
+      <c r="E154">
+        <v>7378.35</v>
+      </c>
+      <c r="F154">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>7339.54</v>
+      </c>
+      <c r="B155">
+        <v>93</v>
+      </c>
+      <c r="C155">
+        <v>6773.32</v>
+      </c>
+      <c r="D155">
+        <v>108</v>
+      </c>
+      <c r="E155">
+        <v>7165.32</v>
+      </c>
+      <c r="F155">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>6991.82</v>
+      </c>
+      <c r="B156">
+        <v>85</v>
+      </c>
+      <c r="C156">
+        <v>6279.35</v>
+      </c>
+      <c r="D156">
+        <v>98</v>
+      </c>
+      <c r="E156">
+        <v>7367.02</v>
+      </c>
+      <c r="F156">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
